--- a/jpa-rest/src/main/resources/templates/easy.xlsx
+++ b/jpa-rest/src/main/resources/templates/easy.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\java\springboot-all-in-one\jpa-rest\src\test\resources\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\java\avtsdm_qvcapi\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16260C34-4579-48EB-8C06-364D897C3A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE08C86-803D-466C-9338-54BDD441B49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{8234DCBC-DC0D-48A1-BEEF-1E171FB1F3A8}"/>
+    <workbookView xWindow="2730" yWindow="2078" windowWidth="16103" windowHeight="9674" activeTab="1" xr2:uid="{8234DCBC-DC0D-48A1-BEEF-1E171FB1F3A8}"/>
   </bookViews>
   <sheets>
-    <sheet name="easy" sheetId="2" r:id="rId1"/>
-    <sheet name="easy_bak" sheetId="7" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId5"/>
-    <sheet name="mock" sheetId="5" r:id="rId6"/>
-    <sheet name="easy (2)" sheetId="6" r:id="rId7"/>
+    <sheet name="easy (3)" sheetId="8" r:id="rId1"/>
+    <sheet name="easy" sheetId="2" r:id="rId2"/>
+    <sheet name="easy_bak" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId6"/>
+    <sheet name="mock" sheetId="5" r:id="rId7"/>
+    <sheet name="easy (2)" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="130">
   <si>
     <t>Brand</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -277,15 +278,6 @@
     <t>F217</t>
   </si>
   <si>
-    <t>業務類別</t>
-  </si>
-  <si>
-    <t>年度</t>
-  </si>
-  <si>
-    <t>季度</t>
-  </si>
-  <si>
     <t>Brand</t>
   </si>
   <si>
@@ -329,12 +321,6 @@
   </si>
   <si>
     <t>永續-F131</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>Q4</t>
   </si>
   <si>
     <t>aaa</t>
@@ -579,13 +565,22 @@
   </si>
   <si>
     <t>{data.detail[subclass.key][plant][mon]}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-""</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{data.sum.point[mon]}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,7 +603,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -667,14 +662,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -990,7 +977,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1023,34 +1010,95 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1059,137 +1107,73 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1505,92 +1489,169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865FF284-7C68-4640-A966-AD67A2643B85}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC68355-4059-47C2-A50B-EEE4CBA4202D}">
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:A3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.1796875" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.26953125" customWidth="1"/>
+    <col min="2" max="3" width="15.17578125" customWidth="1"/>
+    <col min="4" max="4" width="16.8203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.29296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.45" customHeight="1">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:15" ht="15.5" customHeight="1">
+      <c r="A1" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>3</v>
+      </c>
+      <c r="K1">
+        <v>15</v>
+      </c>
+      <c r="L1">
+        <v>15</v>
+      </c>
+      <c r="M1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15" customHeight="1">
+      <c r="A2" s="29"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="17.75" customHeight="1">
+      <c r="A3" s="30"/>
+      <c r="B3" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="C3" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="B4" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="C4" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="59" t="s">
+      <c r="E4" s="26" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="17.7" customHeight="1">
-      <c r="A3" s="63"/>
-      <c r="B3" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="60" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="66" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="66" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="66" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="65"/>
-      <c r="B5" s="66" t="s">
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="65"/>
-      <c r="B6" s="66" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="66"/>
+      <c r="C6" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="B1:C2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1599,6 +1660,114 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865FF284-7C68-4640-A966-AD67A2643B85}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.17578125" customWidth="1"/>
+    <col min="3" max="3" width="16.8203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.29296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.5" customHeight="1">
+      <c r="A1" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1">
+      <c r="A2" s="29"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.75" customHeight="1">
+      <c r="A3" s="30"/>
+      <c r="B3" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDA7C80-4980-453C-8C41-BB4885618003}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -1606,38 +1775,38 @@
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.1796875" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.17578125" customWidth="1"/>
+    <col min="3" max="3" width="16.8203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.26953125" customWidth="1"/>
+    <col min="10" max="10" width="13.29296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.45" customHeight="1">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:4" ht="15.5" customHeight="1">
+      <c r="A1" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="52" t="s">
-        <v>119</v>
+      <c r="C1" s="42" t="s">
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="53"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17.7" customHeight="1">
-      <c r="A3" s="58"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.75" customHeight="1">
+      <c r="A3" s="39"/>
       <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
@@ -1696,7 +1865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6291CF05-B590-4866-839D-70FA23367136}">
   <dimension ref="A1:H150"/>
   <sheetViews>
@@ -1704,7 +1873,7 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="11" t="s">
@@ -1726,7 +1895,7 @@
         <v>51</v>
       </c>
       <c r="H1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1749,7 +1918,7 @@
         <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1772,7 +1941,7 @@
         <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1795,7 +1964,7 @@
         <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1818,7 +1987,7 @@
         <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1841,727 +2010,727 @@
         <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="H7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="H8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="H9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="H10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="H11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="H12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="H13" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="H14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="H15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="H16" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="8:8">
       <c r="H17" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="8:8">
       <c r="H18" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="8:8">
       <c r="H19" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="8:8">
       <c r="H20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="8:8">
       <c r="H21" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="8:8">
       <c r="H22" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="8:8">
       <c r="H23" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="8:8">
       <c r="H24" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="8:8">
       <c r="H25" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="8:8">
       <c r="H26" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="8:8">
       <c r="H27" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="8:8">
       <c r="H28" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="8:8">
       <c r="H29" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="8:8">
       <c r="H30" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="8:8">
       <c r="H31" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="8:8">
       <c r="H32" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="8:8">
       <c r="H33" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="8:8">
       <c r="H34" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="8:8">
       <c r="H35" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="8:8">
       <c r="H36" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="8:8">
       <c r="H37" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="8:8">
       <c r="H38" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="8:8">
       <c r="H39" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="8:8">
       <c r="H40" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="8:8">
       <c r="H41" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="8:8">
       <c r="H42" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="8:8">
       <c r="H43" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="8:8">
       <c r="H44" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="8:8">
       <c r="H45" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="8:8">
       <c r="H46" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="8:8">
       <c r="H47" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="8:8">
       <c r="H48" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="8:8">
       <c r="H49" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="8:8">
       <c r="H50" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="8:8">
       <c r="H51" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="8:8">
       <c r="H52" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="8:8">
       <c r="H53" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="8:8">
       <c r="H54" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="8:8">
       <c r="H55" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="8:8">
       <c r="H56" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="8:8">
       <c r="H57" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="8:8">
       <c r="H58" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="8:8">
       <c r="H59" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="8:8">
       <c r="H60" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="8:8">
       <c r="H61" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="8:8">
       <c r="H62" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="8:8">
       <c r="H63" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="8:8">
       <c r="H64" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="8:8">
       <c r="H65" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="8:8">
       <c r="H66" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="8:8">
       <c r="H67" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="8:8">
       <c r="H68" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="8:8">
       <c r="H69" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="8:8">
       <c r="H70" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="8:8">
       <c r="H71" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="8:8">
       <c r="H72" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="8:8">
       <c r="H73" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="8:8">
       <c r="H74" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="8:8">
       <c r="H75" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="8:8">
       <c r="H76" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="8:8">
       <c r="H77" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="8:8">
       <c r="H78" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="8:8">
       <c r="H79" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="8:8">
       <c r="H80" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="8:8">
       <c r="H81" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="8:8">
       <c r="H82" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="8:8">
       <c r="H83" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="8:8">
       <c r="H84" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="8:8">
       <c r="H85" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="8:8">
       <c r="H86" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="8:8">
       <c r="H87" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="8:8">
       <c r="H88" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="8:8">
       <c r="H89" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="8:8">
       <c r="H90" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="8:8">
       <c r="H91" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92" spans="8:8">
       <c r="H92" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="8:8">
       <c r="H93" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="8:8">
       <c r="H94" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="8:8">
       <c r="H95" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96" spans="8:8">
       <c r="H96" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97" spans="8:8">
       <c r="H97" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="8:8">
       <c r="H98" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="8:8">
       <c r="H99" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100" spans="8:8">
       <c r="H100" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="8:8">
       <c r="H101" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="8:8">
       <c r="H102" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="8:8">
       <c r="H103" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="104" spans="8:8">
       <c r="H104" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="105" spans="8:8">
       <c r="H105" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106" spans="8:8">
       <c r="H106" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107" spans="8:8">
       <c r="H107" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="8:8">
       <c r="H108" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="8:8">
       <c r="H109" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="8:8">
       <c r="H110" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="8:8">
       <c r="H111" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="112" spans="8:8">
       <c r="H112" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="8:8">
       <c r="H113" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="114" spans="8:8">
       <c r="H114" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="115" spans="8:8">
       <c r="H115" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="116" spans="8:8">
       <c r="H116" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117" spans="8:8">
       <c r="H117" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="118" spans="8:8">
       <c r="H118" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="119" spans="8:8">
       <c r="H119" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="120" spans="8:8">
       <c r="H120" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="121" spans="8:8">
       <c r="H121" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="122" spans="8:8">
       <c r="H122" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="123" spans="8:8">
       <c r="H123" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="124" spans="8:8">
       <c r="H124" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="125" spans="8:8">
       <c r="H125" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="126" spans="8:8">
       <c r="H126" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="127" spans="8:8">
       <c r="H127" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="128" spans="8:8">
       <c r="H128" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="129" spans="8:8">
       <c r="H129" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="130" spans="8:8">
       <c r="H130" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="131" spans="8:8">
       <c r="H131" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="132" spans="8:8">
       <c r="H132" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="133" spans="8:8">
       <c r="H133" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="134" spans="8:8">
       <c r="H134" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="135" spans="8:8">
       <c r="H135" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="136" spans="8:8">
       <c r="H136" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="137" spans="8:8">
       <c r="H137" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="138" spans="8:8">
       <c r="H138" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="139" spans="8:8">
       <c r="H139" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="140" spans="8:8">
       <c r="H140" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="141" spans="8:8">
       <c r="H141" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="142" spans="8:8">
       <c r="H142" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="143" spans="8:8">
       <c r="H143" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="144" spans="8:8">
       <c r="H144" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="145" spans="8:8">
       <c r="H145" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="146" spans="8:8">
       <c r="H146" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="147" spans="8:8">
       <c r="H147" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="148" spans="8:8">
       <c r="H148" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="149" spans="8:8">
       <c r="H149" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="150" spans="8:8">
       <c r="H150" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2571,157 +2740,157 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A208DB6F-4569-42CA-86DC-211D90390E28}">
   <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:L4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="2.81640625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13.90625" customWidth="1"/>
-    <col min="7" max="8" width="2.81640625" hidden="1" customWidth="1"/>
-    <col min="9" max="13" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.52734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="2.8203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.87890625" customWidth="1"/>
+    <col min="7" max="8" width="2.8203125" hidden="1" customWidth="1"/>
+    <col min="9" max="13" width="16.8203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="22" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.54296875" customWidth="1"/>
+    <col min="15" max="22" width="2.8203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.52734375" customWidth="1"/>
     <col min="24" max="24" width="22" bestFit="1" customWidth="1"/>
-    <col min="25" max="32" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="34" max="41" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="32" width="2.8203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.29296875" bestFit="1" customWidth="1"/>
+    <col min="34" max="41" width="2.8203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:41" ht="15.4">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26" t="s">
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="X1" s="26" t="s">
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="X1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26" t="s">
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="26"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
     </row>
     <row r="2" spans="1:41" ht="15" customHeight="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="27" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="27" t="s">
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="27" t="s">
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="X2" s="27" t="s">
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="X2" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="27" t="s">
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="27" t="s">
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="27" t="s">
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="27" t="s">
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="27" t="s">
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-    </row>
-    <row r="3" spans="1:41" ht="17.7" customHeight="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="48"/>
+    </row>
+    <row r="3" spans="1:41" ht="17.75" customHeight="1">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
@@ -2988,7 +3157,7 @@
       <c r="AN5" s="4"/>
       <c r="AO5" s="8"/>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:41" ht="15.4">
       <c r="A6" s="10" t="s">
         <v>23</v>
       </c>
@@ -3066,18 +3235,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:41">
-      <c r="X9" s="26" t="s">
+    <row r="9" spans="1:41" ht="15.4">
+      <c r="X9" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="26"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="44"/>
+      <c r="AD9" s="44"/>
+      <c r="AE9" s="44"/>
+      <c r="AF9" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -3109,181 +3278,175 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C992A3A1-D0AA-48C4-927B-B478F02133E2}">
-  <dimension ref="A1:BA6"/>
+  <dimension ref="A1:AX6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C1" sqref="C1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="53" width="3.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="50" width="3.05859375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="15.6" customHeight="1">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:50" ht="15.6" customHeight="1">
+      <c r="A1" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="59"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="M1" s="59"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="P1" s="59"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="41"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="40" t="s">
+      <c r="S1" s="59"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="40" t="s">
+      <c r="V1" s="59"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="41"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="40" t="s">
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH1" s="68"/>
+      <c r="AI1" s="68"/>
+      <c r="AJ1" s="68"/>
+      <c r="AK1" s="68"/>
+      <c r="AL1" s="68"/>
+      <c r="AM1" s="68"/>
+      <c r="AN1" s="68"/>
+      <c r="AO1" s="69"/>
+      <c r="AP1" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ1" s="68"/>
+      <c r="AR1" s="68"/>
+      <c r="AS1" s="68"/>
+      <c r="AT1" s="68"/>
+      <c r="AU1" s="68"/>
+      <c r="AV1" s="68"/>
+      <c r="AW1" s="68"/>
+      <c r="AX1" s="69"/>
+    </row>
+    <row r="2" spans="1:50">
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="V1" s="41"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="40" t="s">
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="49" t="s">
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK2" s="65"/>
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="66"/>
+      <c r="AP2" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="51"/>
-      <c r="AS1" s="49" t="s">
+      <c r="AQ2" s="65"/>
+      <c r="AR2" s="66"/>
+      <c r="AS2" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT2" s="65"/>
+      <c r="AU2" s="66"/>
+      <c r="AV2" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW2" s="65"/>
+      <c r="AX2" s="66"/>
+    </row>
+    <row r="3" spans="1:50" ht="15.75">
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="12">
         <v>10</v>
       </c>
-      <c r="AT1" s="50"/>
-      <c r="AU1" s="50"/>
-      <c r="AV1" s="50"/>
-      <c r="AW1" s="50"/>
-      <c r="AX1" s="50"/>
-      <c r="AY1" s="50"/>
-      <c r="AZ1" s="50"/>
-      <c r="BA1" s="51"/>
-    </row>
-    <row r="2" spans="1:53">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="46" t="s">
+      <c r="D3" s="12">
         <v>11</v>
       </c>
-      <c r="AE2" s="47"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="46" t="s">
+      <c r="E3" s="12">
         <v>12</v>
       </c>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="48"/>
-      <c r="AP2" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="AQ2" s="47"/>
-      <c r="AR2" s="48"/>
-      <c r="AS2" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="AT2" s="47"/>
-      <c r="AU2" s="48"/>
-      <c r="AV2" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW2" s="47"/>
-      <c r="AX2" s="48"/>
-      <c r="AY2" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="AZ2" s="47"/>
-      <c r="BA2" s="48"/>
-    </row>
-    <row r="3" spans="1:53">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
       <c r="F3" s="12">
         <v>10</v>
       </c>
@@ -3419,306 +3582,271 @@
       <c r="AX3" s="12">
         <v>12</v>
       </c>
-      <c r="AY3" s="12">
-        <v>10</v>
-      </c>
-      <c r="AZ3" s="12">
-        <v>11</v>
-      </c>
-      <c r="BA3" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:53">
+    </row>
+    <row r="4" spans="1:50">
       <c r="A4" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="13">
-        <v>2023</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="E4" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="15">
+        <v>88</v>
+      </c>
+      <c r="G4" s="15">
+        <v>77</v>
+      </c>
+      <c r="H4" s="15">
+        <v>77</v>
+      </c>
+      <c r="I4" s="14">
+        <v>22</v>
+      </c>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="14">
+        <v>33</v>
+      </c>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="W4" s="18"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="17"/>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="14"/>
+      <c r="AO4" s="17"/>
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="17"/>
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="14"/>
+      <c r="AU4" s="17"/>
+      <c r="AV4" s="14"/>
+      <c r="AW4" s="14"/>
+      <c r="AX4" s="17"/>
+    </row>
+    <row r="5" spans="1:50">
+      <c r="A5" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="C5" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="F5" s="14">
+        <v>88</v>
+      </c>
+      <c r="G5" s="15">
+        <v>88</v>
+      </c>
+      <c r="H5" s="15">
+        <v>66</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14">
+        <v>33</v>
+      </c>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14">
+        <v>22</v>
+      </c>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="T5" s="17"/>
+      <c r="U5" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="14">
+        <v>22</v>
+      </c>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="14">
+        <v>22</v>
+      </c>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="14">
+        <v>22</v>
+      </c>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="14">
+        <v>22</v>
+      </c>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="14">
+        <v>22</v>
+      </c>
+      <c r="AK5" s="14"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="14">
+        <v>22</v>
+      </c>
+      <c r="AN5" s="14"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="14">
+        <v>22</v>
+      </c>
+      <c r="AQ5" s="14"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="14">
+        <v>22</v>
+      </c>
+      <c r="AT5" s="14"/>
+      <c r="AU5" s="19"/>
+      <c r="AV5" s="14">
+        <v>22</v>
+      </c>
+      <c r="AW5" s="14"/>
+      <c r="AX5" s="19"/>
+    </row>
+    <row r="6" spans="1:50">
+      <c r="A6" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="I4" s="16">
-        <v>88</v>
-      </c>
-      <c r="J4" s="16">
-        <v>77</v>
-      </c>
-      <c r="K4" s="16">
-        <v>77</v>
-      </c>
-      <c r="L4" s="15">
+      <c r="F6" s="15">
+        <v>44</v>
+      </c>
+      <c r="G6" s="15">
         <v>22</v>
       </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="15">
-        <v>33</v>
-      </c>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="15"/>
-      <c r="AK4" s="15"/>
-      <c r="AL4" s="18"/>
-      <c r="AM4" s="15"/>
-      <c r="AN4" s="15"/>
-      <c r="AO4" s="18"/>
-      <c r="AP4" s="15"/>
-      <c r="AQ4" s="15"/>
-      <c r="AR4" s="18"/>
-      <c r="AS4" s="15"/>
-      <c r="AT4" s="15"/>
-      <c r="AU4" s="18"/>
-      <c r="AV4" s="15"/>
-      <c r="AW4" s="15"/>
-      <c r="AX4" s="18"/>
-      <c r="AY4" s="15"/>
-      <c r="AZ4" s="15"/>
-      <c r="BA4" s="18"/>
-    </row>
-    <row r="5" spans="1:53">
-      <c r="A5" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="13">
-        <v>2023</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="I5" s="15">
-        <v>88</v>
-      </c>
-      <c r="J5" s="16">
-        <v>88</v>
-      </c>
-      <c r="K5" s="16">
-        <v>66</v>
-      </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15">
-        <v>33</v>
-      </c>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15">
+      <c r="H6" s="14">
         <v>22</v>
       </c>
-      <c r="S5" s="15"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="W5" s="18"/>
-      <c r="X5" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="15">
-        <v>22</v>
-      </c>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="15">
-        <v>22</v>
-      </c>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="20"/>
-      <c r="AG5" s="15">
-        <v>22</v>
-      </c>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="20"/>
-      <c r="AJ5" s="15">
-        <v>22</v>
-      </c>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="20"/>
-      <c r="AM5" s="15">
-        <v>22</v>
-      </c>
-      <c r="AN5" s="15"/>
-      <c r="AO5" s="20"/>
-      <c r="AP5" s="15">
-        <v>22</v>
-      </c>
-      <c r="AQ5" s="15"/>
-      <c r="AR5" s="20"/>
-      <c r="AS5" s="15">
-        <v>22</v>
-      </c>
-      <c r="AT5" s="15"/>
-      <c r="AU5" s="20"/>
-      <c r="AV5" s="15">
-        <v>22</v>
-      </c>
-      <c r="AW5" s="15"/>
-      <c r="AX5" s="20"/>
-      <c r="AY5" s="15">
-        <v>22</v>
-      </c>
-      <c r="AZ5" s="15"/>
-      <c r="BA5" s="20"/>
-    </row>
-    <row r="6" spans="1:53">
-      <c r="A6" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="13">
-        <v>2023</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="I6" s="16">
-        <v>44</v>
-      </c>
-      <c r="J6" s="16">
-        <v>22</v>
-      </c>
-      <c r="K6" s="15">
-        <v>22</v>
-      </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="15">
+      <c r="I6" s="20"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="14">
         <v>18</v>
       </c>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15">
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14">
         <v>15</v>
       </c>
-      <c r="U6" s="20"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="18"/>
       <c r="V6" s="18"/>
       <c r="W6" s="18"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15">
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14">
         <v>15</v>
       </c>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15">
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14">
         <v>15</v>
       </c>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15">
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14">
         <v>15</v>
       </c>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="15">
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14">
         <v>15</v>
       </c>
-      <c r="AM6" s="15"/>
-      <c r="AN6" s="15"/>
-      <c r="AO6" s="15">
+      <c r="AJ6" s="14"/>
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="14">
         <v>15</v>
       </c>
-      <c r="AP6" s="15"/>
-      <c r="AQ6" s="15"/>
-      <c r="AR6" s="15">
+      <c r="AM6" s="14"/>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="14">
         <v>15</v>
       </c>
-      <c r="AS6" s="15"/>
-      <c r="AT6" s="15"/>
-      <c r="AU6" s="15">
+      <c r="AP6" s="14"/>
+      <c r="AQ6" s="14"/>
+      <c r="AR6" s="14">
         <v>15</v>
       </c>
-      <c r="AV6" s="15"/>
-      <c r="AW6" s="15"/>
-      <c r="AX6" s="15">
+      <c r="AS6" s="14"/>
+      <c r="AT6" s="14"/>
+      <c r="AU6" s="14">
         <v>15</v>
       </c>
-      <c r="AY6" s="15"/>
-      <c r="AZ6" s="15"/>
-      <c r="BA6" s="15">
+      <c r="AV6" s="14"/>
+      <c r="AW6" s="14"/>
+      <c r="AX6" s="14">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="AY2:BA2"/>
-    <mergeCell ref="AJ1:AR1"/>
-    <mergeCell ref="AS1:BA1"/>
+  <mergeCells count="20">
+    <mergeCell ref="AV2:AX2"/>
+    <mergeCell ref="AG1:AO1"/>
+    <mergeCell ref="AP1:AX1"/>
+    <mergeCell ref="X2:Z2"/>
     <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="AD2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
@@ -3726,26 +3854,23 @@
     <mergeCell ref="AM2:AO2"/>
     <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="AV2:AX2"/>
-    <mergeCell ref="AA1:AI1"/>
+    <mergeCell ref="X1:AF1"/>
+    <mergeCell ref="I1:K2"/>
     <mergeCell ref="L1:N2"/>
     <mergeCell ref="O1:Q2"/>
     <mergeCell ref="R1:T2"/>
     <mergeCell ref="U1:W2"/>
-    <mergeCell ref="X1:Z2"/>
-    <mergeCell ref="F1:K2"/>
+    <mergeCell ref="C1:H2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B726A4C-545C-4D43-B59A-BF880E37B341}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -3753,44 +3878,44 @@
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.1796875" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.17578125" customWidth="1"/>
+    <col min="3" max="3" width="16.8203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.26953125" customWidth="1"/>
+    <col min="10" max="10" width="13.29296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.45" customHeight="1">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:5" ht="15.5" customHeight="1">
+      <c r="A1" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>119</v>
+      <c r="C1" s="44" t="s">
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="44"/>
       <c r="D2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.7" customHeight="1">
-      <c r="A3" s="24"/>
+        <v>115</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.75" customHeight="1">
+      <c r="A3" s="45"/>
       <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
@@ -3800,8 +3925,8 @@
       <c r="D3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>121</v>
+      <c r="E3" s="21" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3860,7 +3985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2EDE4F-372C-45DE-9369-6F151D1BF5F0}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -3868,41 +3993,41 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="15.1796875" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.17578125" customWidth="1"/>
+    <col min="4" max="4" width="16.8203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.26953125" customWidth="1"/>
+    <col min="11" max="11" width="13.29296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.45" customHeight="1">
-      <c r="A1" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="25" t="s">
+    <row r="1" spans="1:5" ht="15.5" customHeight="1">
+      <c r="A1" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>119</v>
+      <c r="D1" s="44" t="s">
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.7" customHeight="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="22"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.75" customHeight="1">
+      <c r="A3" s="45"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
@@ -3965,6 +4090,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f7ac5285-7b0f-47b9-8de3-acca560c2bb8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AEFF2F7272C24744B1F8B0BA1D523C4D" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c5cac7231bce1fca193a307114b20d1b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f7ac5285-7b0f-47b9-8de3-acca560c2bb8" xmlns:ns4="fea06ae5-813c-4597-8dc4-a522b2a242ac" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1738ad3f9c01079e2e6a1f5a55dfef56" ns3:_="" ns4:_="">
     <xsd:import namespace="f7ac5285-7b0f-47b9-8de3-acca560c2bb8"/>
@@ -4205,24 +4347,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEE460D2-6A27-45AD-A757-26614E63A2A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f7ac5285-7b0f-47b9-8de3-acca560c2bb8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC05254-FAD5-4313-9C1C-91794A4F8D87}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="fea06ae5-813c-4597-8dc4-a522b2a242ac"/>
+    <ds:schemaRef ds:uri="f7ac5285-7b0f-47b9-8de3-acca560c2bb8"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1939356-7A45-491F-BF79-D0FF64D395A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4239,29 +4389,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEE460D2-6A27-45AD-A757-26614E63A2A3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC05254-FAD5-4313-9C1C-91794A4F8D87}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="fea06ae5-813c-4597-8dc4-a522b2a242ac"/>
-    <ds:schemaRef ds:uri="f7ac5285-7b0f-47b9-8de3-acca560c2bb8"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/jpa-rest/src/main/resources/templates/easy.xlsx
+++ b/jpa-rest/src/main/resources/templates/easy.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\java\springboot-all-in-one\jpa-rest\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C24A56-3367-4CE3-A6D0-2FABAAE8F8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDC86AA-17E0-4064-9892-FE830D6D5C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="1" xr2:uid="{8234DCBC-DC0D-48A1-BEEF-1E171FB1F3A8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="4" xr2:uid="{8234DCBC-DC0D-48A1-BEEF-1E171FB1F3A8}"/>
   </bookViews>
   <sheets>
     <sheet name="easy (3)" sheetId="8" r:id="rId1"/>
     <sheet name="easy" sheetId="2" r:id="rId2"/>
-    <sheet name="easy_bak" sheetId="7" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId6"/>
-    <sheet name="mock" sheetId="5" r:id="rId7"/>
-    <sheet name="easy (2)" sheetId="6" r:id="rId8"/>
+    <sheet name="easy_1" sheetId="7" r:id="rId3"/>
+    <sheet name="easy_2" sheetId="9" r:id="rId4"/>
+    <sheet name="easy_3" sheetId="10" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId8"/>
+    <sheet name="mock" sheetId="5" r:id="rId9"/>
+    <sheet name="easy (2)" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="132">
   <si>
     <t>Brand</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1001,7 +1003,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1101,40 +1103,67 @@
     <xf numFmtId="0" fontId="20" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1143,18 +1172,9 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1162,45 +1182,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1724,12 +1705,116 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2EDE4F-372C-45DE-9369-6F151D1BF5F0}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="15.17578125" customWidth="1"/>
+    <col min="4" max="4" width="16.8203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.29296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.5" customHeight="1">
+      <c r="A1" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1">
+      <c r="A2" s="44"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.75" customHeight="1">
+      <c r="A3" s="44"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865FF284-7C68-4640-A966-AD67A2643B85}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1746,10 +1831,10 @@
       <c r="A1" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="51"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="31" t="s">
         <v>120</v>
       </c>
@@ -1759,8 +1844,8 @@
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="29"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="54"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="32"/>
       <c r="E2" s="23" t="s">
         <v>122</v>
@@ -1836,95 +1921,43 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDA7C80-4980-453C-8C41-BB4885618003}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.17578125" customWidth="1"/>
-    <col min="3" max="3" width="16.8203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.29296875" customWidth="1"/>
+    <col min="1" max="1" width="12.41015625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.29296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" customHeight="1">
-      <c r="A1" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1">
-      <c r="A2" s="38"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17.75" customHeight="1">
-      <c r="A3" s="39"/>
-      <c r="B3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="4"/>
+    <row r="1" spans="1:1" ht="15.5" customHeight="1">
+      <c r="A1" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" customHeight="1">
+      <c r="A2" s="29"/>
+    </row>
+    <row r="3" spans="1:1" ht="17.75" customHeight="1">
+      <c r="A3" s="30"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="25"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1933,6 +1966,122 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E5E5E2-BFA5-47ED-AA70-193FC642E381}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.29296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.5" customHeight="1">
+      <c r="A1" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="38"/>
+    </row>
+    <row r="2" spans="1:2" ht="15" customHeight="1">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+    </row>
+    <row r="3" spans="1:2" ht="17.75" customHeight="1">
+      <c r="A3" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C9E428B-6977-45C9-894C-612D3DB50226}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.29296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.5" customHeight="1">
+      <c r="A1" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" customHeight="1">
+      <c r="A2" s="23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.75" customHeight="1">
+      <c r="A3" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="26"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6291CF05-B590-4866-839D-70FA23367136}">
   <dimension ref="A1:H150"/>
   <sheetViews>
@@ -2807,7 +2956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A208DB6F-4569-42CA-86DC-211D90390E28}">
   <dimension ref="A1:AO9"/>
   <sheetViews>
@@ -2832,132 +2981,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="44" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="X1" s="44" t="s">
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="X1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44" t="s">
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
     </row>
     <row r="2" spans="1:41" ht="15" customHeight="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="47" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="47" t="s">
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="47" t="s">
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="X2" s="47" t="s">
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="X2" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="47" t="s">
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="47" t="s">
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="47" t="s">
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="47" t="s">
+      <c r="AH2" s="43"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="47" t="s">
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="43"/>
+      <c r="AM2" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="48"/>
+      <c r="AN2" s="43"/>
+      <c r="AO2" s="43"/>
     </row>
     <row r="3" spans="1:41" ht="17.75" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
@@ -3303,25 +3452,26 @@
       </c>
     </row>
     <row r="9" spans="1:41" ht="15.4">
-      <c r="X9" s="44" t="s">
+      <c r="X9" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="Y9" s="44"/>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="44"/>
-      <c r="AB9" s="44"/>
-      <c r="AC9" s="44"/>
-      <c r="AD9" s="44"/>
-      <c r="AE9" s="44"/>
-      <c r="AF9" s="44"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="41"/>
+      <c r="AD9" s="41"/>
+      <c r="AE9" s="41"/>
+      <c r="AF9" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="X9:AF9"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:V1"/>
@@ -3332,12 +3482,11 @@
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="X2:Z2"/>
     <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="X9:AF9"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3345,7 +3494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C992A3A1-D0AA-48C4-927B-B478F02133E2}">
   <dimension ref="A1:AX6"/>
   <sheetViews>
@@ -3359,152 +3508,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="15.6" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="58" t="s">
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="59"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="58" t="s">
+      <c r="J1" s="47"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="59"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="58" t="s">
+      <c r="M1" s="47"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="58" t="s">
+      <c r="P1" s="47"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="59"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="58" t="s">
+      <c r="S1" s="47"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="V1" s="59"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="67" t="s">
+      <c r="V1" s="47"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="68"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="67" t="s">
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AH1" s="68"/>
-      <c r="AI1" s="68"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="68"/>
-      <c r="AL1" s="68"/>
-      <c r="AM1" s="68"/>
-      <c r="AN1" s="68"/>
-      <c r="AO1" s="69"/>
-      <c r="AP1" s="67" t="s">
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="57"/>
+      <c r="AP1" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="AQ1" s="68"/>
-      <c r="AR1" s="68"/>
-      <c r="AS1" s="68"/>
-      <c r="AT1" s="68"/>
-      <c r="AU1" s="68"/>
-      <c r="AV1" s="68"/>
-      <c r="AW1" s="68"/>
-      <c r="AX1" s="69"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="56"/>
+      <c r="AX1" s="57"/>
     </row>
     <row r="2" spans="1:50">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="64" t="s">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="64" t="s">
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="64" t="s">
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="64" t="s">
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="64" t="s">
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="AK2" s="65"/>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="64" t="s">
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="54"/>
+      <c r="AM2" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="AN2" s="65"/>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="64" t="s">
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="54"/>
+      <c r="AP2" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="AQ2" s="65"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="64" t="s">
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="54"/>
+      <c r="AS2" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="AT2" s="65"/>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="64" t="s">
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="54"/>
+      <c r="AV2" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AW2" s="65"/>
-      <c r="AX2" s="66"/>
+      <c r="AW2" s="53"/>
+      <c r="AX2" s="54"/>
     </row>
     <row r="3" spans="1:50" ht="15.75">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
       <c r="C3" s="12">
         <v>10</v>
       </c>
@@ -3910,6 +4059,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C1:H2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="I1:K2"/>
+    <mergeCell ref="L1:N2"/>
     <mergeCell ref="O1:Q2"/>
     <mergeCell ref="R1:T2"/>
     <mergeCell ref="U1:W2"/>
@@ -3925,11 +4079,6 @@
     <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="X1:AF1"/>
-    <mergeCell ref="C1:H2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="I1:K2"/>
-    <mergeCell ref="L1:N2"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3937,7 +4086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B726A4C-545C-4D43-B59A-BF880E37B341}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -3954,13 +4103,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.5" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="41" t="s">
         <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -3971,9 +4120,9 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="44"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="2" t="s">
         <v>115</v>
       </c>
@@ -3982,7 +4131,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="17.75" customHeight="1">
-      <c r="A3" s="45"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
@@ -4052,116 +4201,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2EDE4F-372C-45DE-9369-6F151D1BF5F0}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="15.17578125" customWidth="1"/>
-    <col min="4" max="4" width="16.8203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.29296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.5" customHeight="1">
-      <c r="A1" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.75" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-  </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f7ac5285-7b0f-47b9-8de3-acca560c2bb8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4406,27 +4452,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f7ac5285-7b0f-47b9-8de3-acca560c2bb8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC05254-FAD5-4313-9C1C-91794A4F8D87}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEE460D2-6A27-45AD-A757-26614E63A2A3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="fea06ae5-813c-4597-8dc4-a522b2a242ac"/>
-    <ds:schemaRef ds:uri="f7ac5285-7b0f-47b9-8de3-acca560c2bb8"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4451,9 +4487,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEE460D2-6A27-45AD-A757-26614E63A2A3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC05254-FAD5-4313-9C1C-91794A4F8D87}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="fea06ae5-813c-4597-8dc4-a522b2a242ac"/>
+    <ds:schemaRef ds:uri="f7ac5285-7b0f-47b9-8de3-acca560c2bb8"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>